--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,16 +528,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6586740000000001</v>
+        <v>0.1400336666666667</v>
       </c>
       <c r="H2">
-        <v>1.976022</v>
+        <v>0.420101</v>
       </c>
       <c r="I2">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="J2">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -546,28 +546,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6586740000000001</v>
+        <v>0.1400336666666667</v>
       </c>
       <c r="N2">
-        <v>1.976022</v>
+        <v>0.420101</v>
       </c>
       <c r="O2">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="P2">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="Q2">
-        <v>0.4338514382760001</v>
+        <v>0.01960942780011111</v>
       </c>
       <c r="R2">
-        <v>3.904662944484001</v>
+        <v>0.176484850201</v>
       </c>
       <c r="S2">
-        <v>4.799463131743033E-05</v>
+        <v>1.706488195386414E-06</v>
       </c>
       <c r="T2">
-        <v>4.799463131743033E-05</v>
+        <v>1.706488195386414E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6586740000000001</v>
+        <v>0.1400336666666667</v>
       </c>
       <c r="H3">
-        <v>1.976022</v>
+        <v>0.420101</v>
       </c>
       <c r="I3">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="J3">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -608,28 +608,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>94.418046</v>
+        <v>107.0565183333333</v>
       </c>
       <c r="N3">
-        <v>283.254138</v>
+        <v>321.1695549999999</v>
       </c>
       <c r="O3">
-        <v>0.9930721842318497</v>
+        <v>0.9986936737791093</v>
       </c>
       <c r="P3">
-        <v>0.9930721842318498</v>
+        <v>0.9986936737791094</v>
       </c>
       <c r="Q3">
-        <v>62.19071203100401</v>
+        <v>14.99151680278389</v>
       </c>
       <c r="R3">
-        <v>559.716408279036</v>
+        <v>134.923651225055</v>
       </c>
       <c r="S3">
-        <v>0.006879821136832754</v>
+        <v>0.001304619732695251</v>
       </c>
       <c r="T3">
-        <v>0.006879821136832755</v>
+        <v>0.001304619732695251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>94.418046</v>
+        <v>107.0565183333333</v>
       </c>
       <c r="H4">
-        <v>283.254138</v>
+        <v>321.1695549999999</v>
       </c>
       <c r="I4">
-        <v>0.9930721842318497</v>
+        <v>0.9986936737791093</v>
       </c>
       <c r="J4">
-        <v>0.9930721842318498</v>
+        <v>0.9986936737791094</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -670,28 +670,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.6586740000000001</v>
+        <v>0.1400336666666667</v>
       </c>
       <c r="N4">
-        <v>1.976022</v>
+        <v>0.420101</v>
       </c>
       <c r="O4">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="P4">
-        <v>0.006927815768150184</v>
+        <v>0.001306326220890637</v>
       </c>
       <c r="Q4">
-        <v>62.19071203100401</v>
+        <v>14.99151680278389</v>
       </c>
       <c r="R4">
-        <v>559.716408279036</v>
+        <v>134.923651225055</v>
       </c>
       <c r="S4">
-        <v>0.006879821136832754</v>
+        <v>0.001304619732695251</v>
       </c>
       <c r="T4">
-        <v>0.006879821136832755</v>
+        <v>0.001304619732695251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,16 +714,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>94.418046</v>
+        <v>107.0565183333333</v>
       </c>
       <c r="H5">
-        <v>283.254138</v>
+        <v>321.1695549999999</v>
       </c>
       <c r="I5">
-        <v>0.9930721842318497</v>
+        <v>0.9986936737791093</v>
       </c>
       <c r="J5">
-        <v>0.9930721842318498</v>
+        <v>0.9986936737791094</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -732,28 +732,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.418046</v>
+        <v>107.0565183333333</v>
       </c>
       <c r="N5">
-        <v>283.254138</v>
+        <v>321.1695549999999</v>
       </c>
       <c r="O5">
-        <v>0.9930721842318497</v>
+        <v>0.9986936737791093</v>
       </c>
       <c r="P5">
-        <v>0.9930721842318498</v>
+        <v>0.9986936737791094</v>
       </c>
       <c r="Q5">
-        <v>8914.767410458117</v>
+        <v>11461.09811765533</v>
       </c>
       <c r="R5">
-        <v>80232.90669412306</v>
+        <v>103149.883058898</v>
       </c>
       <c r="S5">
-        <v>0.9861923630950169</v>
+        <v>0.9973890540464141</v>
       </c>
       <c r="T5">
-        <v>0.9861923630950171</v>
+        <v>0.9973890540464143</v>
       </c>
     </row>
   </sheetData>
